--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/Year 2/Units/Semester 2/CITS3001/CITS3001-Project1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_274B8C7E15948ED4D18B5C7883F042F1CCE21EDA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E6CD863-CFE5-4E71-A336-111FBB277E13}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Round</t>
+    <t>Starting Uncertainty range</t>
   </si>
   <si>
     <t>Blue Wins</t>
@@ -31,53 +25,31 @@
     <t>Red Wins</t>
   </si>
   <si>
-    <t>50</t>
+    <t>(-0.1, 0.1)</t>
   </si>
   <si>
-    <t>100</t>
+    <t>(-0.5, 0.5)</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>(-1, 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,51 +75,35 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="false"/>
     <c:plotArea>
-      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$B$1</c:f>
+              <c:f>'Chart'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -156,118 +112,48 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$A$2:$A$11</c:f>
+              <c:f>'Chart'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>(-0.1, 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>(-0.5, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>(-1, 1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$B$2:$B$11</c:f>
+              <c:f>'Chart'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>462</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>601</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-249E-4E22-96E4-6A3EE23496F6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$C$1</c:f>
+              <c:f>'Chart'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,214 +162,77 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Chart!$A$2:$A$11</c:f>
+              <c:f>'Chart'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>(-0.1, 0.1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>(-0.5, 0.5)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>(-1, 1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$C$2:$C$11</c:f>
+              <c:f>'Chart'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>550</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>538</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>442</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>399</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-249E-4E22-96E4-6A3EE23496F6}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1710056255"/>
+        <c:axId val="0"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1710056255"/>
+        <c:axId val="0"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>Number of rounds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> of wins</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1710056255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossAx val="0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:overlay val="false"/>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -502,15 +251,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -824,19 +567,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.59375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,119 +589,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>729</v>
       </c>
       <c r="C2">
-        <v>550</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C3">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="C4">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>560</v>
-      </c>
-      <c r="C5">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>573</v>
-      </c>
-      <c r="C6">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>570</v>
-      </c>
-      <c r="C7">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>553</v>
-      </c>
-      <c r="C8">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>589</v>
-      </c>
-      <c r="C9">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>558</v>
-      </c>
-      <c r="C10">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>601</v>
-      </c>
-      <c r="C11">
-        <v>399</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -136,13 +136,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>729</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>475</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -186,13 +186,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>269</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>523</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>549</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -605,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>475</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>549</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
